--- a/語彙の集め_180928.xlsx
+++ b/語彙の集め_180928.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EA6658-CFFA-4259-96AB-DD89379DFDB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB39F1-FD43-4614-9778-7251AEAEB199}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日常用語" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="文法注意" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">日常用語!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
   <si>
     <t>場合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,18 +67,6 @@
   </si>
   <si>
     <t>Good Night!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解釈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はじめまして。どうぞよろしくおねがいします。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>お＝美化語。早う＝副名。ございます＝ですの尊敬語。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,23 +83,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初めまして。どうぞ宜しくお願いいたします。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>どうぞ＝please, by all means.宜しく＝副名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A:有難う御座居ます。
 B:否、どう致しまして。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>どう＝exactly, very。いたしまして＝するの謙譲語。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>お疲れ様でした。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +97,6 @@
   </si>
   <si>
     <t>Thank your for all your hard work.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>おる＝動、continuing action or state。せわ＝assistance, help。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>なさい＝するの尊敬語なさる連用形。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I beg your pardon?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,19 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>なさい＝するの尊敬語なさる連用形。寝る前に。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戴きます。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>いただきます。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>いただく＝食べるの絶対謙譲語。食べる前に。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ご馳走＝feast, treating。食べる前に。食べた後で。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ルームを入る前に、後で。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A:只今。
 B:お帰りなさい。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>なさい＝するの尊敬語なさる連用形。自分の部屋を入る。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -245,10 +196,523 @@
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>英語（参考用）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>解釈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>お＝美化語。早う＝副名。ございます＝ですの尊敬語。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>どうぞ＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>please, by all means.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>宜しく＝副名。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>どう＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>exactly, very</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>。いたしまして＝するの謙譲語。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>おる＝動、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>continuing action or state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>。せわ＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>assistance, help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>なさい＝するの尊敬語なさる連用形。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>なさい＝するの尊敬語なさる連用形。寝る前に。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>いただく＝食べるの絶対謙譲語。食べる前に。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>ご馳走＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>feast, treating</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>。食べる前に。食べた後で。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>ルームを入る前に、後で。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>なさい＝するの尊敬語なさる連用形。自分の部屋を入る。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A:初めまして。どうぞ宜しくお願いいたします。
+B:此方こそ。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:はじめまして。どうぞよろしくおねがいします。
+B:こちらこそ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此れは何ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これはなんですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此れはお幾らですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これはおいくらですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxはどこにあります/いりますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxは何処に有ります/居りますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此方は私の友人の王さんです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こちらはわたしのようじんのおうさんです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失礼します。お仕事は何ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しつれいします。おしごとはなんですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ご出身は何方ですか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごしゅっしんはどちらですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今何時ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまなんじですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歓迎会は何時ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんげいかいはいつですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何時に始まりますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんじにはじまりますか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:何時位ですか。
+B:確か11時半頃です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:なんじぐらいですか。
+B:たしかじゅういちじはんごろです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大変ですね。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たいへんですね。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ってらっしゃい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いらっしゃいませ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畏まりました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かしこまりました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK I know.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お願い致します。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おねがいいたします。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いたしまして＝するの謙譲語。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何ですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How about it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よかったです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良かったです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By the way,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所で、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ところで、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒絶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今は結構です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いまはけっこうです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どうしてですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何してですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:気に入りましたか。
+B:はい、とても。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:きにいりましたか。
+B:はい、とても。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: Do you like it/them?
+B: Yes, very much.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷いですね。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まよいですね。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's hard to decide.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかがですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いかが＝どうの婉曲形。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比較句。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AよりBの方がぎやかです。
+東京の冬は北京の冬程寒くないです。
+スポーツ中でサッカーが一番面白いです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AよりBのほうがぎやかです。
+とうきょうのふゆはぺきんのふゆほどさむくない。
+すぽーつのちゅうでさっかーがいちばんおもしろいです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AとBと何方が難しいですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AとBとどちらがむずかしいですか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まいにちしちじかんはたらきます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毎日7時間働きます。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お忙しい所申し訳有りませんが。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おいそがしいところもうしわけありませんが。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm sorry to interrupt you while you are busy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>働き</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,13 +734,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -298,6 +755,32 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -365,55 +848,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -694,249 +1187,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="15" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="D13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B78AD122-6ADA-4800-B85A-9E1061F2C795}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -947,7 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1BAEF2-9B55-4C85-878D-9CEE9410835F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
